--- a/02_clean_data/normdist_calc.xlsx
+++ b/02_clean_data/normdist_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtan\Documents\github\parents-face-masc\02_clean_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Documents\GitHub\parents-face-masc\02_clean_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8AF307-7C7E-49F6-8831-24406E40B3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391363C9-C5B6-4A8D-83C1-804C5BBFD121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{915B5901-5E12-4284-B735-460E5E86478C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{915B5901-5E12-4284-B735-460E5E86478C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="201">
   <si>
     <t>PARENT_ID</t>
   </si>
@@ -639,28 +638,7 @@
     <t>masc_score</t>
   </si>
   <si>
-    <t>group_overall</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>male parent</t>
-  </si>
-  <si>
-    <t>male control</t>
-  </si>
-  <si>
-    <t>female parent</t>
-  </si>
-  <si>
-    <t>female control</t>
-  </si>
-  <si>
-    <t>NORMDIST</t>
+    <t>normdist</t>
   </si>
 </sst>
 </file>
@@ -1013,20 +991,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD98E67-7DF3-4EA2-A3FE-7F1C0A2747D8}">
-  <dimension ref="A1:J356"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,19 +1017,10 @@
         <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" t="s">
         <v>200</v>
       </c>
-      <c r="I1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>33</v>
       </c>
@@ -1068,19 +1036,8 @@
       <c r="E2">
         <v>3.984189087312874</v>
       </c>
-      <c r="H2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2">
-        <f>AVERAGE(D299:D356)</f>
-        <v>0.85332397466153131</v>
-      </c>
-      <c r="J2">
-        <f>_xlfn.STDEV.S(D299:D356)</f>
-        <v>8.2406834055476788E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>49</v>
       </c>
@@ -1096,19 +1053,8 @@
       <c r="E3">
         <v>2.0252182107442809</v>
       </c>
-      <c r="H3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3">
-        <f>AVERAGE(D115:D164)</f>
-        <v>0.79645021362849167</v>
-      </c>
-      <c r="J3">
-        <f>_xlfn.STDEV.S(D115:D164)</f>
-        <v>0.10584753882378806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59</v>
       </c>
@@ -1124,19 +1070,8 @@
       <c r="E4">
         <v>2.5884168881001588</v>
       </c>
-      <c r="H4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4">
-        <f>AVERAGE(D165:D298)</f>
-        <v>0.32243606481639475</v>
-      </c>
-      <c r="J4">
-        <f>_xlfn.STDEV.S(D165:D298)</f>
-        <v>0.11584756527336001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>73</v>
       </c>
@@ -1152,19 +1087,8 @@
       <c r="E5">
         <v>1.7250635215604671</v>
       </c>
-      <c r="H5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5">
-        <f>AVERAGE(D2:D114)</f>
-        <v>0.28339026253700339</v>
-      </c>
-      <c r="J5">
-        <f>_xlfn.STDEV.S(D2:D114)</f>
-        <v>8.790245016574065E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>79</v>
       </c>
@@ -1181,7 +1105,7 @@
         <v>1.3570178107742081</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>81</v>
       </c>
@@ -1198,7 +1122,7 @@
         <v>0.56439363598260639</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>83</v>
       </c>
@@ -1215,7 +1139,7 @@
         <v>2.8433735173217292</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>91</v>
       </c>
@@ -1232,7 +1156,7 @@
         <v>3.7665608399677275</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>99</v>
       </c>
@@ -1249,7 +1173,7 @@
         <v>4.4834509538542475</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>106</v>
       </c>
@@ -1266,7 +1190,7 @@
         <v>2.1943121338227947</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>110</v>
       </c>
@@ -1283,7 +1207,7 @@
         <v>4.0367046615241637</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>184</v>
       </c>
@@ -1300,7 +1224,7 @@
         <v>4.1277356542134775</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>187</v>
       </c>
@@ -1317,7 +1241,7 @@
         <v>1.2038041626233589</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>190</v>
       </c>
@@ -1334,7 +1258,7 @@
         <v>4.4135459746827266</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>194</v>
       </c>
@@ -1351,7 +1275,7 @@
         <v>1.7912592455187906</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>203</v>
       </c>
@@ -1368,7 +1292,7 @@
         <v>2.0427000827311033</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>206</v>
       </c>
@@ -1385,7 +1309,7 @@
         <v>3.4932817501266009</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>209</v>
       </c>
@@ -1402,7 +1326,7 @@
         <v>4.4358200022891037</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>213</v>
       </c>
@@ -1419,7 +1343,7 @@
         <v>2.647316987170532</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>215</v>
       </c>
@@ -1436,7 +1360,7 @@
         <v>3.8940868687833268</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>230</v>
       </c>
@@ -1453,7 +1377,7 @@
         <v>4.526464286741942</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>232</v>
       </c>
@@ -1470,7 +1394,7 @@
         <v>4.060079554880792</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>240</v>
       </c>
@@ -1487,7 +1411,7 @@
         <v>4.48574310344934</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>241</v>
       </c>
@@ -1504,7 +1428,7 @@
         <v>2.9275935996314244</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>245</v>
       </c>
@@ -1521,7 +1445,7 @@
         <v>3.9802952881625435</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>257</v>
       </c>
@@ -1538,7 +1462,7 @@
         <v>4.525984403262183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>273</v>
       </c>
@@ -1555,7 +1479,7 @@
         <v>4.531542908476605</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>280</v>
       </c>
@@ -1572,7 +1496,7 @@
         <v>4.4817809974552665</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>288</v>
       </c>
@@ -1589,7 +1513,7 @@
         <v>2.7058177302702635</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>292</v>
       </c>
@@ -1606,7 +1530,7 @@
         <v>3.3058976409978653</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>300</v>
       </c>
@@ -1623,7 +1547,7 @@
         <v>3.6902766409716081</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>302</v>
       </c>
@@ -1640,7 +1564,7 @@
         <v>3.9745133562247226</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>307</v>
       </c>
@@ -1657,7 +1581,7 @@
         <v>3.001027419544037</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>312</v>
       </c>
@@ -1674,7 +1598,7 @@
         <v>4.5288249341069191</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>315</v>
       </c>
@@ -1691,7 +1615,7 @@
         <v>4.4322284586643717</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>320</v>
       </c>
@@ -1708,7 +1632,7 @@
         <v>1.8087020321454694</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>322</v>
       </c>
@@ -1725,7 +1649,7 @@
         <v>4.5340339223742969</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>324</v>
       </c>
@@ -1742,7 +1666,7 @@
         <v>1.5872943588635045</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>331</v>
       </c>
@@ -1759,7 +1683,7 @@
         <v>2.2947966330440965</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>340</v>
       </c>
@@ -1776,7 +1700,7 @@
         <v>0.73381812846319017</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>343</v>
       </c>
@@ -1793,7 +1717,7 @@
         <v>2.3173821865889273</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>344</v>
       </c>
@@ -1810,7 +1734,7 @@
         <v>0.84208653565469171</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>348</v>
       </c>
@@ -1827,7 +1751,7 @@
         <v>4.537503675103653</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>353</v>
       </c>
@@ -1844,7 +1768,7 @@
         <v>3.4549922288371846</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>356</v>
       </c>
@@ -1861,7 +1785,7 @@
         <v>1.1942685088290088</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>358</v>
       </c>
@@ -1878,7 +1802,7 @@
         <v>0.9622417021346471</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>363</v>
       </c>
@@ -1895,7 +1819,7 @@
         <v>3.6781947014308671</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>365</v>
       </c>
@@ -1912,7 +1836,7 @@
         <v>2.8367396389276163</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>378</v>
       </c>
@@ -1929,7 +1853,7 @@
         <v>3.9508992491663313</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>393</v>
       </c>
@@ -1946,7 +1870,7 @@
         <v>4.5371547682099944</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>398</v>
       </c>
@@ -1963,7 +1887,7 @@
         <v>2.8090004132133468</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>405</v>
       </c>
@@ -1980,7 +1904,7 @@
         <v>4.0763720158859238</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>406</v>
       </c>
@@ -1997,7 +1921,7 @@
         <v>4.3945793331920049</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>412</v>
       </c>
@@ -2014,7 +1938,7 @@
         <v>1.419705143008648</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>416</v>
       </c>
@@ -2031,7 +1955,7 @@
         <v>1.0267529174921539</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>429</v>
       </c>
@@ -2048,7 +1972,7 @@
         <v>2.9037944134757088</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>434</v>
       </c>
@@ -2065,7 +1989,7 @@
         <v>2.929133031532821</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>438</v>
       </c>
@@ -2082,7 +2006,7 @@
         <v>0.50063403996141964</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>445</v>
       </c>
@@ -2099,7 +2023,7 @@
         <v>4.536343047499936</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>453</v>
       </c>
@@ -2116,7 +2040,7 @@
         <v>3.3033526241386286</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>462</v>
       </c>
@@ -2133,7 +2057,7 @@
         <v>1.8840797825041378</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>465</v>
       </c>
@@ -2150,7 +2074,7 @@
         <v>4.4663618193807917</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>475</v>
       </c>
@@ -2167,7 +2091,7 @@
         <v>4.5384602558326517</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>479</v>
       </c>
@@ -2184,7 +2108,7 @@
         <v>4.0271611958755615</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>488</v>
       </c>
@@ -2201,7 +2125,7 @@
         <v>3.8728957449937811</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>492</v>
       </c>
@@ -2218,7 +2142,7 @@
         <v>4.5330888195604011</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>495</v>
       </c>
@@ -2235,7 +2159,7 @@
         <v>3.8313491224615674</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>501</v>
       </c>
@@ -2252,7 +2176,7 @@
         <v>1.3915184400686456</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>505</v>
       </c>
@@ -2269,7 +2193,7 @@
         <v>1.343303744904186</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>508</v>
       </c>
@@ -2286,7 +2210,7 @@
         <v>3.3959373884129218</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>509</v>
       </c>
@@ -2303,7 +2227,7 @@
         <v>4.4749517383885902</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>513</v>
       </c>
@@ -2320,7 +2244,7 @@
         <v>4.3723056320233011</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>521</v>
       </c>
@@ -2337,7 +2261,7 @@
         <v>3.391189370142174</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>527</v>
       </c>
@@ -2354,7 +2278,7 @@
         <v>4.4885068622027484</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>529</v>
       </c>
@@ -2371,7 +2295,7 @@
         <v>2.0050719116232987</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>540</v>
       </c>
@@ -2388,7 +2312,7 @@
         <v>3.2536052201078842</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>543</v>
       </c>
@@ -2405,7 +2329,7 @@
         <v>2.2554375903600277</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>545</v>
       </c>
@@ -2422,7 +2346,7 @@
         <v>3.8650167490616125</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>546</v>
       </c>
@@ -2439,7 +2363,7 @@
         <v>1.1990461068894611</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>550</v>
       </c>
@@ -2456,7 +2380,7 @@
         <v>2.5376820369566673</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>554</v>
       </c>
@@ -2473,7 +2397,7 @@
         <v>3.0786218287905931</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>560</v>
       </c>
@@ -2490,7 +2414,7 @@
         <v>3.7997150108794395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>566</v>
       </c>
@@ -2507,7 +2431,7 @@
         <v>3.8881338835187162</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>572</v>
       </c>
@@ -2524,7 +2448,7 @@
         <v>4.5071541480964585</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>573</v>
       </c>
@@ -2541,7 +2465,7 @@
         <v>2.2560681563130465</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>574</v>
       </c>
@@ -2558,7 +2482,7 @@
         <v>4.536459927200637</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>581</v>
       </c>
@@ -2575,7 +2499,7 @@
         <v>3.524179592228093</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>597</v>
       </c>
@@ -2592,7 +2516,7 @@
         <v>4.0083663164114522</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>609</v>
       </c>
@@ -2609,7 +2533,7 @@
         <v>1.1589532972489283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>614</v>
       </c>
@@ -2626,7 +2550,7 @@
         <v>1.6258809360476367</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>620</v>
       </c>
@@ -2643,7 +2567,7 @@
         <v>0.42704755279080214</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>632</v>
       </c>
@@ -2660,7 +2584,7 @@
         <v>0.81181103223359319</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>635</v>
       </c>
@@ -2677,7 +2601,7 @@
         <v>3.4409579255910345</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>642</v>
       </c>
@@ -2694,7 +2618,7 @@
         <v>3.7224065353764049</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>645</v>
       </c>
@@ -2711,7 +2635,7 @@
         <v>4.5308669039525933</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>655</v>
       </c>
@@ -2728,7 +2652,7 @@
         <v>3.4487599844995183</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>661</v>
       </c>
@@ -2745,7 +2669,7 @@
         <v>4.4357070109391277</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>685</v>
       </c>
@@ -2762,7 +2686,7 @@
         <v>3.7019417187694663</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>701</v>
       </c>
@@ -2779,7 +2703,7 @@
         <v>4.2978663942349709</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>723</v>
       </c>
@@ -2796,7 +2720,7 @@
         <v>3.1737481767903999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>728</v>
       </c>
@@ -2813,7 +2737,7 @@
         <v>4.0081281742275934</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>741</v>
       </c>
@@ -2830,7 +2754,7 @@
         <v>4.488714947136641</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>746</v>
       </c>
@@ -2847,7 +2771,7 @@
         <v>1.8398869638504551</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>761</v>
       </c>
@@ -2864,7 +2788,7 @@
         <v>3.8752730170234795</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>767</v>
       </c>
@@ -2881,7 +2805,7 @@
         <v>1.6520275463854428</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>780</v>
       </c>
@@ -2898,7 +2822,7 @@
         <v>4.5308556832004729</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>787</v>
       </c>
@@ -2915,7 +2839,7 @@
         <v>1.8790310412921667</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>790</v>
       </c>
@@ -2932,7 +2856,7 @@
         <v>0.75859370425919614</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>816</v>
       </c>
@@ -2949,7 +2873,7 @@
         <v>4.52622138687064</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>822</v>
       </c>
@@ -2966,7 +2890,7 @@
         <v>1.5544700205704514</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>831</v>
       </c>
@@ -2983,7 +2907,7 @@
         <v>3.3184603974390483</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>836</v>
       </c>
@@ -3000,7 +2924,7 @@
         <v>3.1876178895729086</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>854</v>
       </c>
@@ -3017,7 +2941,7 @@
         <v>3.8373635865511586</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3034,7 +2958,7 @@
         <v>3.7541380197459047</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>9</v>
       </c>
@@ -3051,7 +2975,7 @@
         <v>3.1517056656045015</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>23</v>
       </c>
@@ -3068,7 +2992,7 @@
         <v>3.0821431516811351</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>28</v>
       </c>
@@ -3085,7 +3009,7 @@
         <v>2.2559020810240331</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>38</v>
       </c>
@@ -3102,7 +3026,7 @@
         <v>2.2658471415399166</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>64</v>
       </c>
@@ -3119,7 +3043,7 @@
         <v>3.7490239752226278</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>67</v>
       </c>
@@ -3136,7 +3060,7 @@
         <v>1.4554080869168198</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>74</v>
       </c>
@@ -3153,7 +3077,7 @@
         <v>3.1669164912799328</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>77</v>
       </c>
@@ -3170,7 +3094,7 @@
         <v>0.74100016217119102</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>89</v>
       </c>
@@ -3187,7 +3111,7 @@
         <v>1.8947237031377584</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>111</v>
       </c>
@@ -3204,7 +3128,7 @@
         <v>3.505204593704943</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>113</v>
       </c>
@@ -3221,7 +3145,7 @@
         <v>1.4747405209802202</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>191</v>
       </c>
@@ -3238,7 +3162,7 @@
         <v>0.87236086487055287</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>202</v>
       </c>
@@ -3255,7 +3179,7 @@
         <v>2.9123157593339228</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>212</v>
       </c>
@@ -3272,7 +3196,7 @@
         <v>3.7619146187079076</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>221</v>
       </c>
@@ -3289,7 +3213,7 @@
         <v>3.7662598147659976</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>256</v>
       </c>
@@ -3306,7 +3230,7 @@
         <v>3.7589764077627179</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>264</v>
       </c>
@@ -3323,7 +3247,7 @@
         <v>3.1941855897362439</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>279</v>
       </c>
@@ -3340,7 +3264,7 @@
         <v>2.8604438511137658</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>314</v>
       </c>
@@ -3357,7 +3281,7 @@
         <v>1.282318007613084</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>336</v>
       </c>
@@ -3374,7 +3298,7 @@
         <v>2.7266231412309492</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>362</v>
       </c>
@@ -3391,7 +3315,7 @@
         <v>2.4777235425762454</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>368</v>
       </c>
@@ -3408,7 +3332,7 @@
         <v>3.5124518313282049</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>381</v>
       </c>
@@ -3425,7 +3349,7 @@
         <v>1.8275329763826738</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>404</v>
       </c>
@@ -3442,7 +3366,7 @@
         <v>0.54299233874430619</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>433</v>
       </c>
@@ -3459,7 +3383,7 @@
         <v>2.3197441522307178</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>444</v>
       </c>
@@ -3476,7 +3400,7 @@
         <v>3.7688289236574781</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>448</v>
       </c>
@@ -3493,7 +3417,7 @@
         <v>3.2354330911498046</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>461</v>
       </c>
@@ -3510,7 +3434,7 @@
         <v>1.3628532234146229</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>474</v>
       </c>
@@ -3527,7 +3451,7 @@
         <v>2.6394654716212012</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>477</v>
       </c>
@@ -3544,7 +3468,7 @@
         <v>3.4185601338344851</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>497</v>
       </c>
@@ -3561,7 +3485,7 @@
         <v>3.7014294219436845</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>500</v>
       </c>
@@ -3578,7 +3502,7 @@
         <v>1.9660711092687702</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>504</v>
       </c>
@@ -3595,7 +3519,7 @@
         <v>2.6455781212470453</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>535</v>
       </c>
@@ -3612,7 +3536,7 @@
         <v>3.6281992305363202</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>547</v>
       </c>
@@ -3629,7 +3553,7 @@
         <v>3.6584213645458532</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>553</v>
       </c>
@@ -3646,7 +3570,7 @@
         <v>3.3006086476646996</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>559</v>
       </c>
@@ -3663,7 +3587,7 @@
         <v>3.590104979662041</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>569</v>
       </c>
@@ -3680,7 +3604,7 @@
         <v>2.4590196937283073</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>571</v>
       </c>
@@ -3697,7 +3621,7 @@
         <v>1.7365461202528112</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>586</v>
       </c>
@@ -3714,7 +3638,7 @@
         <v>3.517173717130917</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>608</v>
       </c>
@@ -3731,7 +3655,7 @@
         <v>3.755562521060722</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>617</v>
       </c>
@@ -3748,7 +3672,7 @@
         <v>3.7685101469145255</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>625</v>
       </c>
@@ -3765,7 +3689,7 @@
         <v>0.65880210018900431</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>630</v>
       </c>
@@ -3782,7 +3706,7 @@
         <v>3.7067040018609716</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>638</v>
       </c>
@@ -3799,7 +3723,7 @@
         <v>0.11116090721207783</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>654</v>
       </c>
@@ -3816,7 +3740,7 @@
         <v>2.1501803181504955</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>684</v>
       </c>
@@ -3833,7 +3757,7 @@
         <v>3.1044948071057012</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>793</v>
       </c>
@@ -3850,7 +3774,7 @@
         <v>1.323009213787768</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>835</v>
       </c>
@@ -3867,7 +3791,7 @@
         <v>3.1668309275727928</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -3884,7 +3808,7 @@
         <v>2.1026523374631179</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>56</v>
       </c>
@@ -3901,7 +3825,7 @@
         <v>1.4088270487556296</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>57</v>
       </c>
@@ -3918,7 +3842,7 @@
         <v>2.046122121823271</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>58</v>
       </c>
@@ -3935,7 +3859,7 @@
         <v>1.0129200440096047</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>59</v>
       </c>
@@ -3952,7 +3876,7 @@
         <v>3.4348779656913853</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>60</v>
       </c>
@@ -3969,7 +3893,7 @@
         <v>2.8054345149834523</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -3986,7 +3910,7 @@
         <v>3.3373386280599755</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>62</v>
       </c>
@@ -4003,7 +3927,7 @@
         <v>3.3653830847463713</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>63</v>
       </c>
@@ -4020,7 +3944,7 @@
         <v>1.2370387954330329</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>64</v>
       </c>
@@ -4037,7 +3961,7 @@
         <v>1.2174781726544655</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>65</v>
       </c>
@@ -4054,7 +3978,7 @@
         <v>2.2693807357382285</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>66</v>
       </c>
@@ -4071,7 +3995,7 @@
         <v>3.4404053897775722</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>67</v>
       </c>
@@ -4088,7 +4012,7 @@
         <v>3.4416294582533142</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>68</v>
       </c>
@@ -4105,7 +4029,7 @@
         <v>3.1674710517492866</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>69</v>
       </c>
@@ -4122,7 +4046,7 @@
         <v>3.0066602910450713</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>70</v>
       </c>
@@ -4139,7 +4063,7 @@
         <v>1.982334244671454</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>71</v>
       </c>
@@ -4156,7 +4080,7 @@
         <v>3.3353634946097088</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>72</v>
       </c>
@@ -4173,7 +4097,7 @@
         <v>1.9842224172259144</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>73</v>
       </c>
@@ -4190,7 +4114,7 @@
         <v>3.4406439448447363</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>74</v>
       </c>
@@ -4207,7 +4131,7 @@
         <v>2.1926918929233148</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>75</v>
       </c>
@@ -4224,7 +4148,7 @@
         <v>0.77295362110449339</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>76</v>
       </c>
@@ -4241,7 +4165,7 @@
         <v>3.4282610152756492</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>77</v>
       </c>
@@ -4258,7 +4182,7 @@
         <v>2.7384107914666607</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>78</v>
       </c>
@@ -4275,7 +4199,7 @@
         <v>2.5890770410986774</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>79</v>
       </c>
@@ -4292,7 +4216,7 @@
         <v>1.8369556929721536</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>80</v>
       </c>
@@ -4309,7 +4233,7 @@
         <v>1.8704076244593146</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>81</v>
       </c>
@@ -4326,7 +4250,7 @@
         <v>2.8496109376362875</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>82</v>
       </c>
@@ -4343,7 +4267,7 @@
         <v>1.1124368314964559</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>83</v>
       </c>
@@ -4360,7 +4284,7 @@
         <v>2.9072951234044115</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>84</v>
       </c>
@@ -4377,7 +4301,7 @@
         <v>3.0966612475086279</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>85</v>
       </c>
@@ -4394,7 +4318,7 @@
         <v>2.3404533717907525</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>86</v>
       </c>
@@ -4411,7 +4335,7 @@
         <v>0.63666911790151037</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>87</v>
       </c>
@@ -4428,7 +4352,7 @@
         <v>1.5359696469819273</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>88</v>
       </c>
@@ -4445,7 +4369,7 @@
         <v>1.9425060477173435</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -4462,7 +4386,7 @@
         <v>0.67776823826842192</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -4479,7 +4403,7 @@
         <v>3.1899671150407944</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>91</v>
       </c>
@@ -4496,7 +4420,7 @@
         <v>1.3154626670644287</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>92</v>
       </c>
@@ -4513,7 +4437,7 @@
         <v>2.8471820492527091</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>93</v>
       </c>
@@ -4530,7 +4454,7 @@
         <v>2.383147159919965</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>94</v>
       </c>
@@ -4547,7 +4471,7 @@
         <v>3.4236669465650547</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>95</v>
       </c>
@@ -4564,7 +4488,7 @@
         <v>1.5139526138224226</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>96</v>
       </c>
@@ -4581,7 +4505,7 @@
         <v>0.55358122824746214</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>97</v>
       </c>
@@ -4598,7 +4522,7 @@
         <v>2.3918594759317577</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>98</v>
       </c>
@@ -4615,7 +4539,7 @@
         <v>2.5742963893401796</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>99</v>
       </c>
@@ -4632,7 +4556,7 @@
         <v>3.0076617782256179</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>100</v>
       </c>
@@ -4649,7 +4573,7 @@
         <v>3.2489946478845133</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>101</v>
       </c>
@@ -4666,7 +4590,7 @@
         <v>3.3362383477028024</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>102</v>
       </c>
@@ -4683,7 +4607,7 @@
         <v>3.2564975560516638</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>103</v>
       </c>
@@ -4700,7 +4624,7 @@
         <v>3.4388747999416003</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>104</v>
       </c>
@@ -4717,7 +4641,7 @@
         <v>3.4270486702169753</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>105</v>
       </c>
@@ -4734,7 +4658,7 @@
         <v>2.9087465470410394</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>106</v>
       </c>
@@ -4751,7 +4675,7 @@
         <v>3.135609007661015</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>107</v>
       </c>
@@ -4768,7 +4692,7 @@
         <v>3.4010492674123443</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>108</v>
       </c>
@@ -4785,7 +4709,7 @@
         <v>1.8263087111868994</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>109</v>
       </c>
@@ -4802,7 +4726,7 @@
         <v>7.1763694275894546E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>110</v>
       </c>
@@ -4819,7 +4743,7 @@
         <v>3.3314516638580316</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>111</v>
       </c>
@@ -4836,7 +4760,7 @@
         <v>3.1562926049984426</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>112</v>
       </c>
@@ -4853,7 +4777,7 @@
         <v>1.0700495007525026</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>113</v>
       </c>
@@ -4870,7 +4794,7 @@
         <v>1.7938157498644227</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>114</v>
       </c>
@@ -4887,7 +4811,7 @@
         <v>1.7702863472833836</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>115</v>
       </c>
@@ -4904,7 +4828,7 @@
         <v>1.0531339687237267</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -4921,7 +4845,7 @@
         <v>3.4063734372694419</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -4938,7 +4862,7 @@
         <v>0.96738113379807877</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>118</v>
       </c>
@@ -4955,7 +4879,7 @@
         <v>2.2425530406838541</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>119</v>
       </c>
@@ -4972,7 +4896,7 @@
         <v>3.4434531615804604</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>120</v>
       </c>
@@ -4989,7 +4913,7 @@
         <v>0.72553484787384093</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>121</v>
       </c>
@@ -5006,7 +4930,7 @@
         <v>3.0037594464025625</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>122</v>
       </c>
@@ -5023,7 +4947,7 @@
         <v>3.3385988643148807</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>123</v>
       </c>
@@ -5040,7 +4964,7 @@
         <v>3.4260066274941732</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>124</v>
       </c>
@@ -5057,7 +4981,7 @@
         <v>1.7150095089761388</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>125</v>
       </c>
@@ -5074,7 +4998,7 @@
         <v>3.3255156701396618</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>126</v>
       </c>
@@ -5091,7 +5015,7 @@
         <v>1.7452278958340699</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>127</v>
       </c>
@@ -5108,7 +5032,7 @@
         <v>3.3050782088622044</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -5125,7 +5049,7 @@
         <v>3.3673840540743689</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>129</v>
       </c>
@@ -5142,7 +5066,7 @@
         <v>3.4234213634490467</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>130</v>
       </c>
@@ -5159,7 +5083,7 @@
         <v>3.1275335851628836</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>131</v>
       </c>
@@ -5176,7 +5100,7 @@
         <v>2.8315348329852394</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>132</v>
       </c>
@@ -5193,7 +5117,7 @@
         <v>2.3591658740481933</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>133</v>
       </c>
@@ -5210,7 +5134,7 @@
         <v>3.3243834192110917</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>134</v>
       </c>
@@ -5227,7 +5151,7 @@
         <v>3.4375763091893958</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>135</v>
       </c>
@@ -5244,7 +5168,7 @@
         <v>2.5367361863473419</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>136</v>
       </c>
@@ -5261,7 +5185,7 @@
         <v>0.82915497482212996</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>137</v>
       </c>
@@ -5278,7 +5202,7 @@
         <v>1.3368044409054787</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>138</v>
       </c>
@@ -5295,7 +5219,7 @@
         <v>3.2364402441624649</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>139</v>
       </c>
@@ -5312,7 +5236,7 @@
         <v>2.5398525995520114</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>140</v>
       </c>
@@ -5329,7 +5253,7 @@
         <v>2.5379333955081851</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>141</v>
       </c>
@@ -5346,7 +5270,7 @@
         <v>3.4302757361977538</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>142</v>
       </c>
@@ -5363,7 +5287,7 @@
         <v>0.55016781926058389</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>143</v>
       </c>
@@ -5380,7 +5304,7 @@
         <v>2.9903896484880188</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>144</v>
       </c>
@@ -5397,7 +5321,7 @@
         <v>1.0737639318574015</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>145</v>
       </c>
@@ -5414,7 +5338,7 @@
         <v>0.32098159538879839</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>146</v>
       </c>
@@ -5431,7 +5355,7 @@
         <v>2.9814126948590087</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>147</v>
       </c>
@@ -5448,7 +5372,7 @@
         <v>3.4429773362547467</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>148</v>
       </c>
@@ -5465,7 +5389,7 @@
         <v>3.2804231745793837</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>149</v>
       </c>
@@ -5482,7 +5406,7 @@
         <v>2.8473705422612956</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>150</v>
       </c>
@@ -5499,7 +5423,7 @@
         <v>0.56668154517167624</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>151</v>
       </c>
@@ -5516,7 +5440,7 @@
         <v>2.424058428656537</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>152</v>
       </c>
@@ -5533,7 +5457,7 @@
         <v>3.3916544738118648</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -5550,7 +5474,7 @@
         <v>3.2207339430099879</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>154</v>
       </c>
@@ -5567,7 +5491,7 @@
         <v>3.2892029509265623</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>155</v>
       </c>
@@ -5584,7 +5508,7 @@
         <v>1.2415632517346118</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>156</v>
       </c>
@@ -5601,7 +5525,7 @@
         <v>3.1558591084475971</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>157</v>
       </c>
@@ -5618,7 +5542,7 @@
         <v>3.2752851055222032</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>158</v>
       </c>
@@ -5635,7 +5559,7 @@
         <v>1.3506961356457561</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>159</v>
       </c>
@@ -5652,7 +5576,7 @@
         <v>2.4653582040033046</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>160</v>
       </c>
@@ -5669,7 +5593,7 @@
         <v>1.7804264202409779</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>161</v>
       </c>
@@ -5686,7 +5610,7 @@
         <v>2.6428362018865883</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>162</v>
       </c>
@@ -5703,7 +5627,7 @@
         <v>2.5849535830492889</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>163</v>
       </c>
@@ -5720,7 +5644,7 @@
         <v>2.2312018760848567</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>164</v>
       </c>
@@ -5737,7 +5661,7 @@
         <v>2.5340153926090783</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>165</v>
       </c>
@@ -5754,7 +5678,7 @@
         <v>3.4177128013139764</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>166</v>
       </c>
@@ -5771,7 +5695,7 @@
         <v>3.4415766940594663</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>167</v>
       </c>
@@ -5788,7 +5712,7 @@
         <v>3.4075453587205224</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>168</v>
       </c>
@@ -5805,7 +5729,7 @@
         <v>3.4422826450562676</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>169</v>
       </c>
@@ -5822,7 +5746,7 @@
         <v>1.8910399043757193</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>170</v>
       </c>
@@ -5839,7 +5763,7 @@
         <v>3.4436390405770485</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>171</v>
       </c>
@@ -5856,7 +5780,7 @@
         <v>2.4931336912949864</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>172</v>
       </c>
@@ -5873,7 +5797,7 @@
         <v>0.19063367664648667</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>173</v>
       </c>
@@ -5890,7 +5814,7 @@
         <v>3.2470174207011495</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>174</v>
       </c>
@@ -5907,7 +5831,7 @@
         <v>3.4108398737246288</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>175</v>
       </c>
@@ -5924,7 +5848,7 @@
         <v>1.5590270675894677</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>176</v>
       </c>
@@ -5941,7 +5865,7 @@
         <v>1.6140574515841732</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>177</v>
       </c>
@@ -5958,7 +5882,7 @@
         <v>2.8351384203420507</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>178</v>
       </c>
@@ -5975,7 +5899,7 @@
         <v>3.2043191410320775</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>179</v>
       </c>
@@ -5992,7 +5916,7 @@
         <v>3.0910436136078339</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>180</v>
       </c>
@@ -6009,7 +5933,7 @@
         <v>2.374616967788528</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>181</v>
       </c>
@@ -6026,7 +5950,7 @@
         <v>2.2953300661277378</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>186</v>
       </c>
@@ -6043,7 +5967,7 @@
         <v>3.408184355763233</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>187</v>
       </c>
@@ -6060,7 +5984,7 @@
         <v>1.9544923189861674</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>188</v>
       </c>
@@ -6077,7 +6001,7 @@
         <v>9.998498031542484E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>189</v>
       </c>
@@ -6094,7 +6018,7 @@
         <v>1.8943377360869338</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>190</v>
       </c>
@@ -6111,7 +6035,7 @@
         <v>3.3300189964283491</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>191</v>
       </c>
@@ -6128,7 +6052,7 @@
         <v>3.4388461564779655</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>192</v>
       </c>
@@ -6145,7 +6069,7 @@
         <v>0.37044952754336902</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1</v>
       </c>
@@ -6162,7 +6086,7 @@
         <v>3.2216604305067009</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -6179,7 +6103,7 @@
         <v>1.9883365345288038</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>3</v>
       </c>
@@ -6196,7 +6120,7 @@
         <v>3.3809721128516981</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -6213,7 +6137,7 @@
         <v>4.2225213135396134</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -6230,7 +6154,7 @@
         <v>4.5396973841242376</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -6247,7 +6171,7 @@
         <v>2.1366506463514527</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -6264,7 +6188,7 @@
         <v>2.5269373190676911</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -6281,7 +6205,7 @@
         <v>4.682788425004782</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -6298,7 +6222,7 @@
         <v>1.6730437949351795</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -6315,7 +6239,7 @@
         <v>4.5060138693708476</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -6332,7 +6256,7 @@
         <v>4.8169197125974303</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -6349,7 +6273,7 @@
         <v>4.4360044900605375</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -6366,7 +6290,7 @@
         <v>1.4957534653809961</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -6383,7 +6307,7 @@
         <v>3.8016251349844139</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -6400,7 +6324,7 @@
         <v>3.179817173476033</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>16</v>
       </c>
@@ -6417,7 +6341,7 @@
         <v>4.7637409786426188</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -6434,7 +6358,7 @@
         <v>4.0059009904384837</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>18</v>
       </c>
@@ -6451,7 +6375,7 @@
         <v>3.4239634497139932</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -6468,7 +6392,7 @@
         <v>3.7176404458727954</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -6485,7 +6409,7 @@
         <v>4.2155841476861156</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>21</v>
       </c>
@@ -6502,7 +6426,7 @@
         <v>4.4301856061037475</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -6519,7 +6443,7 @@
         <v>4.8377710011343993</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>23</v>
       </c>
@@ -6536,7 +6460,7 @@
         <v>4.4830230489123908</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -6553,7 +6477,7 @@
         <v>1.97930927626693</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>25</v>
       </c>
@@ -6570,7 +6494,7 @@
         <v>3.5317608672155916</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>26</v>
       </c>
@@ -6587,7 +6511,7 @@
         <v>4.7974156974161719</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -6604,7 +6528,7 @@
         <v>2.7347084850071108</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>28</v>
       </c>
@@ -6621,7 +6545,7 @@
         <v>4.703189656279819</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>29</v>
       </c>
@@ -6638,7 +6562,7 @@
         <v>4.648434575159345</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>30</v>
       </c>
@@ -6655,7 +6579,7 @@
         <v>3.8976601768882246</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>31</v>
       </c>
@@ -6672,7 +6596,7 @@
         <v>2.0276237818581593</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>32</v>
       </c>
@@ -6689,7 +6613,7 @@
         <v>4.8066892962637553</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -6706,7 +6630,7 @@
         <v>4.2731392060967153</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>34</v>
       </c>
@@ -6723,7 +6647,7 @@
         <v>3.39020325273404</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>35</v>
       </c>
@@ -6740,7 +6664,7 @@
         <v>1.9216240321872451</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>36</v>
       </c>
@@ -6757,7 +6681,7 @@
         <v>4.328299617346536</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>37</v>
       </c>
@@ -6774,7 +6698,7 @@
         <v>4.8190826111565208</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>38</v>
       </c>
@@ -6791,7 +6715,7 @@
         <v>1.8156807570679425</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>39</v>
       </c>
@@ -6808,7 +6732,7 @@
         <v>4.0145896499498495</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>40</v>
       </c>
@@ -6825,7 +6749,7 @@
         <v>4.7444664018654557</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>41</v>
       </c>
@@ -6842,7 +6766,7 @@
         <v>4.2380814592679927</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>42</v>
       </c>
@@ -6859,7 +6783,7 @@
         <v>3.5179195753258803</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>43</v>
       </c>
@@ -6876,7 +6800,7 @@
         <v>0.39237242589048316</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>44</v>
       </c>
@@ -6893,7 +6817,7 @@
         <v>0.18442742007554147</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>45</v>
       </c>
@@ -6910,7 +6834,7 @@
         <v>4.4461633453175819</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>46</v>
       </c>
@@ -6927,7 +6851,7 @@
         <v>0.67914134765466672</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>47</v>
       </c>
@@ -6944,7 +6868,7 @@
         <v>1.251995918761144</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>48</v>
       </c>
@@ -6961,7 +6885,7 @@
         <v>1.813840096764245</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>49</v>
       </c>
@@ -6978,7 +6902,7 @@
         <v>4.7065598423893915</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>50</v>
       </c>
@@ -6995,7 +6919,7 @@
         <v>1.8002045409667504</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>51</v>
       </c>
@@ -7012,7 +6936,7 @@
         <v>1.7751955811086322</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>52</v>
       </c>
@@ -7029,7 +6953,7 @@
         <v>4.3783046855170866</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>53</v>
       </c>
@@ -7046,7 +6970,7 @@
         <v>2.1075206434568008</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>54</v>
       </c>
@@ -7063,7 +6987,7 @@
         <v>4.4607842972489022</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>182</v>
       </c>
@@ -7080,7 +7004,7 @@
         <v>4.840122158967799</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>183</v>
       </c>
@@ -7097,7 +7021,7 @@
         <v>4.5319280879434896</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>184</v>
       </c>
@@ -7114,7 +7038,7 @@
         <v>1.684312858885012</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>185</v>
       </c>
